--- a/dashboard_loader/health_agedcare_uploader/health_agedcare.xlsx
+++ b/dashboard_loader/health_agedcare_uploader/health_agedcare.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t xml:space="preserve">Aged care places per 1000 older people</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">Transitional aged care places (per 1000 older people)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community aged care recipients (per 1000 older people)</t>
   </si>
   <si>
     <t xml:space="preserve">Measure</t>
@@ -166,7 +163,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -187,11 +184,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -263,12 +255,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,43 +273,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,13 +318,13 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26:K26"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.33"/>
   </cols>
   <sheetData>
@@ -778,7 +754,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="1" t="n">
         <v>2012</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1233,7 +1209,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1267,73 +1243,73 @@
         <v>75.076578</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>25.7769625285757</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="2" t="n">
         <v>27.64505719848</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="2" t="n">
         <v>25.3545930890011</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="2" t="n">
         <v>25.6986453389606</v>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="2" t="n">
         <v>25.1480203451484</v>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="H28" s="2" t="n">
         <v>26.5075781534708</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="2" t="n">
         <v>32.5553417989173</v>
       </c>
-      <c r="J28" s="5" t="n">
+      <c r="J28" s="2" t="n">
         <v>37.5743519063133</v>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="K28" s="2" t="n">
         <v>26.2921420391285</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="2" t="n">
         <v>1.6116786</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="2" t="n">
         <v>1.6373876</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="2" t="n">
         <v>1.5702679</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="2" t="n">
         <v>1.6509985</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="2" t="n">
         <v>1.6425206</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="2" t="n">
         <v>1.650655</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="2" t="n">
         <v>1.9317306</v>
       </c>
-      <c r="J29" s="5" t="n">
+      <c r="J29" s="2" t="n">
         <v>1.8859713</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="2" t="n">
         <v>1.6236249</v>
       </c>
     </row>
@@ -1356,7 +1332,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="C26:K26 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1367,93 +1343,93 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="5" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
